--- a/runs/run328/NotionalETEOutput328.xlsx
+++ b/runs/run328/NotionalETEOutput328.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER3_State_Update</t>
+    <t>Missile_HIGHWIND1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER3_244.MISSILE_BRAVER3_244</t>
+    <t>MISSILE_HIGHWIND1_411.MISSILE_HIGHWIND1_411</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER3</t>
+    <t>MISSILE_HIGHWIND1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1550.366974346964</v>
+        <v>-1538.600137556799</v>
       </c>
       <c r="J2">
-        <v>2004.179009326864</v>
+        <v>1900.957290759921</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1439.652993558549</v>
+        <v>-1525.903074166219</v>
       </c>
       <c r="J3">
-        <v>1988.937444799416</v>
+        <v>2040.006245082507</v>
       </c>
       <c r="K3">
-        <v>312.470647788569</v>
+        <v>300.4350382164157</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1457.743977787421</v>
+        <v>-1391.101350373942</v>
       </c>
       <c r="J4">
-        <v>1840.213291526946</v>
+        <v>1891.541517662138</v>
       </c>
       <c r="K4">
-        <v>617.191568889838</v>
+        <v>570.9046582351207</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1452.143375202932</v>
+        <v>-1350.959820939789</v>
       </c>
       <c r="J5">
-        <v>1870.425477908737</v>
+        <v>1862.02477778009</v>
       </c>
       <c r="K5">
-        <v>842.2166335564597</v>
+        <v>852.9648242563416</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1341.258255098897</v>
+        <v>-1412.1975902959</v>
       </c>
       <c r="J6">
-        <v>1807.105650174904</v>
+        <v>1779.683334492508</v>
       </c>
       <c r="K6">
-        <v>1087.301834977946</v>
+        <v>1142.943564805913</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1298.134168660953</v>
+        <v>-1398.517753084806</v>
       </c>
       <c r="J7">
-        <v>1724.701655200931</v>
+        <v>1722.402354052126</v>
       </c>
       <c r="K7">
-        <v>1392.863076681491</v>
+        <v>1354.494225726957</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1292.311215835643</v>
+        <v>-1286.098982157518</v>
       </c>
       <c r="J8">
-        <v>1726.729414412894</v>
+        <v>1654.679799442814</v>
       </c>
       <c r="K8">
-        <v>1575.954529391273</v>
+        <v>1532.681303669261</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-96.27776343878514</v>
+        <v>-99.48348766407479</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1218.639953969529</v>
+        <v>-1322.305053682427</v>
       </c>
       <c r="J9">
-        <v>1630.416290317348</v>
+        <v>1632.008668312061</v>
       </c>
       <c r="K9">
-        <v>1859.299502922686</v>
+        <v>1819.934247393634</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>220.4833119049867</v>
+        <v>211.0541279891632</v>
       </c>
       <c r="G10">
-        <v>-79.98499221690979</v>
+        <v>-80.6098991590611</v>
       </c>
       <c r="H10">
-        <v>874.7124249900904</v>
+        <v>822.6729855270594</v>
       </c>
       <c r="I10">
-        <v>-1239.375157542508</v>
+        <v>-1258.839548744263</v>
       </c>
       <c r="J10">
-        <v>1571.708811529616</v>
+        <v>1559.142800277718</v>
       </c>
       <c r="K10">
-        <v>2054.92871075898</v>
+        <v>2047.391523474535</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>164.1243003871072</v>
+        <v>172.235824719044</v>
       </c>
       <c r="G11">
-        <v>-64.08874135167886</v>
+        <v>-66.72946223063558</v>
       </c>
       <c r="H11">
-        <v>1052.973454130119</v>
+        <v>1086.930604276781</v>
       </c>
       <c r="I11">
-        <v>-1199.012656179357</v>
+        <v>-1215.051637989607</v>
       </c>
       <c r="J11">
-        <v>1624.379482150062</v>
+        <v>1609.427117505828</v>
       </c>
       <c r="K11">
-        <v>2262.319588782151</v>
+        <v>2186.092402503305</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.7050321744857</v>
+        <v>141.3954407362199</v>
       </c>
       <c r="G12">
-        <v>-48.38377534047495</v>
+        <v>-51.4471251886765</v>
       </c>
       <c r="H12">
-        <v>1127.911295925636</v>
+        <v>1130.652360498447</v>
       </c>
       <c r="I12">
-        <v>-1141.082537580989</v>
+        <v>-1111.604589999032</v>
       </c>
       <c r="J12">
-        <v>1464.311618949098</v>
+        <v>1501.367807614103</v>
       </c>
       <c r="K12">
-        <v>2331.478162437231</v>
+        <v>2464.45426325145</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>121.8596981242086</v>
+        <v>127.5820170477964</v>
       </c>
       <c r="G13">
-        <v>-32.40564613696887</v>
+        <v>-34.79620458145331</v>
       </c>
       <c r="H13">
-        <v>1282.507166802549</v>
+        <v>1292.284751658165</v>
       </c>
       <c r="I13">
-        <v>-1075.238613078244</v>
+        <v>-1181.537680710002</v>
       </c>
       <c r="J13">
-        <v>1443.731052047437</v>
+        <v>1521.638597394705</v>
       </c>
       <c r="K13">
-        <v>2575.391925072769</v>
+        <v>2434.220441295499</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>108.5144227909145</v>
+        <v>112.4328737345684</v>
       </c>
       <c r="G14">
-        <v>-17.57867416047278</v>
+        <v>-16.76366652766876</v>
       </c>
       <c r="H14">
-        <v>1303.504805110668</v>
+        <v>1388.218148137583</v>
       </c>
       <c r="I14">
-        <v>-1122.489768814316</v>
+        <v>-1134.173304669707</v>
       </c>
       <c r="J14">
-        <v>1430.991444324671</v>
+        <v>1397.246642455935</v>
       </c>
       <c r="K14">
-        <v>2761.316823404118</v>
+        <v>2579.045554567989</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>97.75763203432537</v>
+        <v>102.8290364867146</v>
       </c>
       <c r="G15">
-        <v>-0.8828071673951664</v>
+        <v>-0.9019990478183485</v>
       </c>
       <c r="H15">
-        <v>1412.439146126269</v>
+        <v>1362.797213883966</v>
       </c>
       <c r="I15">
-        <v>-1089.87576574237</v>
+        <v>-1009.360691813222</v>
       </c>
       <c r="J15">
-        <v>1318.873467597961</v>
+        <v>1309.768869536814</v>
       </c>
       <c r="K15">
-        <v>2777.928982379801</v>
+        <v>2656.039541346285</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.86429103635875</v>
+        <v>88.56826813266872</v>
       </c>
       <c r="G16">
-        <v>15.21053492900774</v>
+        <v>15.1909642033917</v>
       </c>
       <c r="H16">
-        <v>1494.754093457476</v>
+        <v>1434.825345149401</v>
       </c>
       <c r="I16">
-        <v>-1021.857305527055</v>
+        <v>-1061.519584266382</v>
       </c>
       <c r="J16">
-        <v>1302.025264387605</v>
+        <v>1376.459980049924</v>
       </c>
       <c r="K16">
-        <v>2846.813216691628</v>
+        <v>3000.734401215232</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.45419146183356</v>
+        <v>85.28999298440047</v>
       </c>
       <c r="G17">
-        <v>31.67518899650036</v>
+        <v>33.42296249926694</v>
       </c>
       <c r="H17">
-        <v>1424.08594402129</v>
+        <v>1518.37225842073</v>
       </c>
       <c r="I17">
-        <v>-977.325298555117</v>
+        <v>-1001.509627956511</v>
       </c>
       <c r="J17">
-        <v>1267.070682516514</v>
+        <v>1227.278521798098</v>
       </c>
       <c r="K17">
-        <v>2886.322108256151</v>
+        <v>3091.000541547257</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>79.71415307053367</v>
+        <v>77.86415582585639</v>
       </c>
       <c r="G18">
-        <v>46.19573507027349</v>
+        <v>47.97020405420656</v>
       </c>
       <c r="H18">
-        <v>1438.14709616699</v>
+        <v>1562.808496175801</v>
       </c>
       <c r="I18">
-        <v>-920.2658427334489</v>
+        <v>-916.6269274487515</v>
       </c>
       <c r="J18">
-        <v>1278.074579428809</v>
+        <v>1253.819860145478</v>
       </c>
       <c r="K18">
-        <v>3161.168327984948</v>
+        <v>2942.308662605428</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>73.89915942947167</v>
+        <v>79.9330412417463</v>
       </c>
       <c r="G19">
-        <v>64.56263100379094</v>
+        <v>67.35685771287142</v>
       </c>
       <c r="H19">
-        <v>1591.74830133069</v>
+        <v>1472.534405488818</v>
       </c>
       <c r="I19">
-        <v>-865.8323262809856</v>
+        <v>-908.5563551151679</v>
       </c>
       <c r="J19">
-        <v>1208.49262990551</v>
+        <v>1230.509781535078</v>
       </c>
       <c r="K19">
-        <v>3072.039456620767</v>
+        <v>3108.681230474318</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.28358396521884</v>
+        <v>73.2721048059913</v>
       </c>
       <c r="G20">
-        <v>82.64873941431105</v>
+        <v>78.56702429739765</v>
       </c>
       <c r="H20">
-        <v>1637.074481768801</v>
+        <v>1526.499065695724</v>
       </c>
       <c r="I20">
-        <v>-823.0881567571574</v>
+        <v>-880.4682439505921</v>
       </c>
       <c r="J20">
-        <v>1081.69597754648</v>
+        <v>1124.354146120374</v>
       </c>
       <c r="K20">
-        <v>3024.507567956949</v>
+        <v>3004.963137145802</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.57671835328308</v>
+        <v>73.13878015825506</v>
       </c>
       <c r="G21">
-        <v>102.2519644626597</v>
+        <v>102.0315943283745</v>
       </c>
       <c r="H21">
-        <v>1622.916412862469</v>
+        <v>1564.14712624277</v>
       </c>
       <c r="I21">
-        <v>-775.9243542114499</v>
+        <v>-817.8843484253597</v>
       </c>
       <c r="J21">
-        <v>1033.893965267208</v>
+        <v>1038.810482512965</v>
       </c>
       <c r="K21">
-        <v>3116.825500259911</v>
+        <v>3281.61784891185</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.86988287927279</v>
+        <v>66.35641230882554</v>
       </c>
       <c r="G22">
-        <v>115.4458699083218</v>
+        <v>110.2784472558955</v>
       </c>
       <c r="H22">
-        <v>1633.575979421336</v>
+        <v>1625.224116165777</v>
       </c>
       <c r="I22">
-        <v>-762.5705216557004</v>
+        <v>-726.4547162828013</v>
       </c>
       <c r="J22">
-        <v>1004.178290502681</v>
+        <v>985.6288188636127</v>
       </c>
       <c r="K22">
-        <v>3199.076598906964</v>
+        <v>3112.821438730689</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.44599132773337</v>
+        <v>66.62023984259291</v>
       </c>
       <c r="G23">
-        <v>132.0174788465787</v>
+        <v>132.9703039322109</v>
       </c>
       <c r="H23">
-        <v>1625.986801469306</v>
+        <v>1554.940667687036</v>
       </c>
       <c r="I23">
-        <v>-730.4358526838856</v>
+        <v>-696.6325126226589</v>
       </c>
       <c r="J23">
-        <v>985.788126419941</v>
+        <v>1010.164679159068</v>
       </c>
       <c r="K23">
-        <v>3060.912026678402</v>
+        <v>3278.001940059102</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.69680120947287</v>
+        <v>66.6487253975365</v>
       </c>
       <c r="G24">
-        <v>141.7073346754975</v>
+        <v>141.5451116163809</v>
       </c>
       <c r="H24">
-        <v>1577.748997925632</v>
+        <v>1692.621172634369</v>
       </c>
       <c r="I24">
-        <v>-640.3237271891736</v>
+        <v>-651.4432176707566</v>
       </c>
       <c r="J24">
-        <v>963.6948974752183</v>
+        <v>922.2105939513435</v>
       </c>
       <c r="K24">
-        <v>3290.035596764608</v>
+        <v>3342.20994894183</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.00790823078635</v>
+        <v>60.8608365762475</v>
       </c>
       <c r="G25">
-        <v>170.1746007678349</v>
+        <v>159.8850122136433</v>
       </c>
       <c r="H25">
-        <v>1657.377851039927</v>
+        <v>1604.526925826316</v>
       </c>
       <c r="I25">
-        <v>-610.6554041172144</v>
+        <v>-569.6140933618568</v>
       </c>
       <c r="J25">
-        <v>842.9089619291126</v>
+        <v>847.971485136727</v>
       </c>
       <c r="K25">
-        <v>3103.828858420923</v>
+        <v>3177.582140490695</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.41783866096316</v>
+        <v>62.0659816011088</v>
       </c>
       <c r="G26">
-        <v>187.3437149120201</v>
+        <v>173.656119020681</v>
       </c>
       <c r="H26">
-        <v>1701.710384653808</v>
+        <v>1739.909712823855</v>
       </c>
       <c r="I26">
-        <v>-545.6924695031012</v>
+        <v>-544.4902877213087</v>
       </c>
       <c r="J26">
-        <v>840.7176739290999</v>
+        <v>843.6058912821726</v>
       </c>
       <c r="K26">
-        <v>3117.327711126642</v>
+        <v>3080.573211583346</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.54927340971188</v>
+        <v>55.84752497010615</v>
       </c>
       <c r="G27">
-        <v>206.35156798027</v>
+        <v>190.6210718239848</v>
       </c>
       <c r="H27">
-        <v>1699.249887316473</v>
+        <v>1664.736008165028</v>
       </c>
       <c r="I27">
-        <v>-505.9053075288623</v>
+        <v>-497.8745565962925</v>
       </c>
       <c r="J27">
-        <v>782.0705294067312</v>
+        <v>794.2773205288901</v>
       </c>
       <c r="K27">
-        <v>3157.546115153054</v>
+        <v>3132.722462676149</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.01765440092911</v>
+        <v>59.11999779729939</v>
       </c>
       <c r="G28">
-        <v>213.7494543857757</v>
+        <v>207.5131583543345</v>
       </c>
       <c r="H28">
-        <v>1784.464681030698</v>
+        <v>1728.848261461779</v>
       </c>
       <c r="I28">
-        <v>-426.9712306265256</v>
+        <v>-453.1228691476223</v>
       </c>
       <c r="J28">
-        <v>765.8467300031663</v>
+        <v>711.2492363046113</v>
       </c>
       <c r="K28">
-        <v>2934.719182818147</v>
+        <v>2856.586295626675</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.478694099028</v>
+        <v>57.46359565105753</v>
       </c>
       <c r="G29">
-        <v>221.2135355454322</v>
+        <v>223.2569060828588</v>
       </c>
       <c r="H29">
-        <v>1768.955881440007</v>
+        <v>1728.531221879387</v>
       </c>
       <c r="I29">
-        <v>-389.6232201302705</v>
+        <v>-378.3994424426463</v>
       </c>
       <c r="J29">
-        <v>685.8242621627783</v>
+        <v>660.6818898293938</v>
       </c>
       <c r="K29">
-        <v>2852.936331630627</v>
+        <v>2936.582674222873</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.53376981679186</v>
+        <v>54.2858683785305</v>
       </c>
       <c r="G30">
-        <v>247.2281710999995</v>
+        <v>252.1754732026423</v>
       </c>
       <c r="H30">
-        <v>1725.127153468117</v>
+        <v>1769.648513635286</v>
       </c>
       <c r="I30">
-        <v>-333.7057382061514</v>
+        <v>-340.2428610715432</v>
       </c>
       <c r="J30">
-        <v>667.620088531062</v>
+        <v>622.6234765366806</v>
       </c>
       <c r="K30">
-        <v>2841.178270377612</v>
+        <v>2764.779016155292</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.4282911388797</v>
+        <v>51.79861982818196</v>
       </c>
       <c r="G31">
-        <v>261.3519055864704</v>
+        <v>258.8787015650859</v>
       </c>
       <c r="H31">
-        <v>1797.06383141064</v>
+        <v>1732.043199793071</v>
       </c>
       <c r="I31">
-        <v>-269.4616359677613</v>
+        <v>-255.1483374158883</v>
       </c>
       <c r="J31">
-        <v>583.3086850544596</v>
+        <v>577.2913458700078</v>
       </c>
       <c r="K31">
-        <v>2727.582533749954</v>
+        <v>2563.170216317479</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.57771271468835</v>
+        <v>48.98399808813016</v>
       </c>
       <c r="G32">
-        <v>292.791506639377</v>
+        <v>284.7999230934216</v>
       </c>
       <c r="H32">
-        <v>1698.203305332309</v>
+        <v>1807.708170893346</v>
       </c>
       <c r="I32">
-        <v>-203.5243709521274</v>
+        <v>-211.452485861218</v>
       </c>
       <c r="J32">
-        <v>545.9067000151649</v>
+        <v>565.3433540877936</v>
       </c>
       <c r="K32">
-        <v>2445.780729161486</v>
+        <v>2556.571191026937</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.23455291228388</v>
+        <v>48.31582694791689</v>
       </c>
       <c r="G33">
-        <v>308.1830416968123</v>
+        <v>289.611822648483</v>
       </c>
       <c r="H33">
-        <v>1822.033979821396</v>
+        <v>1841.153937170646</v>
       </c>
       <c r="I33">
-        <v>-142.6009938426308</v>
+        <v>-151.8875260187799</v>
       </c>
       <c r="J33">
-        <v>478.2136588173108</v>
+        <v>486.1827934353503</v>
       </c>
       <c r="K33">
-        <v>2481.63767995603</v>
+        <v>2426.805401294585</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.66530722955083</v>
+        <v>50.14563815174908</v>
       </c>
       <c r="G34">
-        <v>299.3317892216327</v>
+        <v>317.0195598974228</v>
       </c>
       <c r="H34">
-        <v>1777.237836525612</v>
+        <v>1889.762391412886</v>
       </c>
       <c r="I34">
-        <v>-85.00826562419317</v>
+        <v>-84.33150343271475</v>
       </c>
       <c r="J34">
-        <v>422.4599580604005</v>
+        <v>432.8837012269537</v>
       </c>
       <c r="K34">
-        <v>2140.880152748335</v>
+        <v>2244.164244780718</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.26279178475651</v>
+        <v>49.05064847544059</v>
       </c>
       <c r="G35">
-        <v>318.8638498714927</v>
+        <v>332.6782784485949</v>
       </c>
       <c r="H35">
-        <v>1864.012537164238</v>
+        <v>1876.818361027497</v>
       </c>
       <c r="I35">
-        <v>-18.8401427169155</v>
+        <v>-19.03579662069057</v>
       </c>
       <c r="J35">
-        <v>399.5035120786853</v>
+        <v>406.6845535029108</v>
       </c>
       <c r="K35">
-        <v>2007.637041354772</v>
+        <v>1989.524525166775</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.27956626493231</v>
+        <v>48.74264776523369</v>
       </c>
       <c r="G36">
-        <v>361.6423831910971</v>
+        <v>350.7251668633355</v>
       </c>
       <c r="H36">
-        <v>1841.670107683413</v>
+        <v>1829.120735199386</v>
       </c>
       <c r="I36">
-        <v>47.93605147318826</v>
+        <v>45.1586143599094</v>
       </c>
       <c r="J36">
-        <v>354.1717941335369</v>
+        <v>342.3337886125639</v>
       </c>
       <c r="K36">
-        <v>1811.883713378145</v>
+        <v>1855.816153867042</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.14219716705706</v>
+        <v>44.38035651729296</v>
       </c>
       <c r="G37">
-        <v>368.9647365853895</v>
+        <v>351.2648638367208</v>
       </c>
       <c r="H37">
-        <v>1925.10279416941</v>
+        <v>1920.575724772814</v>
       </c>
       <c r="I37">
-        <v>112.9490763816785</v>
+        <v>111.669134611961</v>
       </c>
       <c r="J37">
-        <v>297.5950555179738</v>
+        <v>284.7935906982109</v>
       </c>
       <c r="K37">
-        <v>1680.66945453973</v>
+        <v>1631.259267178403</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.23369490286505</v>
+        <v>44.14069798870761</v>
       </c>
       <c r="G38">
-        <v>377.2978188044312</v>
+        <v>386.5818914356325</v>
       </c>
       <c r="H38">
-        <v>1868.52043590369</v>
+        <v>1853.884352774304</v>
       </c>
       <c r="I38">
-        <v>192.0505287206543</v>
+        <v>193.0889452565803</v>
       </c>
       <c r="J38">
-        <v>245.1038687075488</v>
+        <v>246.2345140788045</v>
       </c>
       <c r="K38">
-        <v>1387.186237943229</v>
+        <v>1433.189512541952</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>42.87345787109569</v>
+        <v>44.21553755598729</v>
       </c>
       <c r="G39">
-        <v>392.6406772536287</v>
+        <v>383.3330523211775</v>
       </c>
       <c r="H39">
-        <v>1927.548327574035</v>
+        <v>1940.407984529196</v>
       </c>
       <c r="I39">
-        <v>262.7368824367264</v>
+        <v>259.2992707324869</v>
       </c>
       <c r="J39">
-        <v>194.4351920530887</v>
+        <v>194.2463509539496</v>
       </c>
       <c r="K39">
-        <v>1174.886416967015</v>
+        <v>1190.206036910974</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.07107981858592</v>
+        <v>42.09786434941521</v>
       </c>
       <c r="G40">
-        <v>422.1672848898157</v>
+        <v>418.5074437585095</v>
       </c>
       <c r="H40">
-        <v>1865.254067783995</v>
+        <v>1901.042401819762</v>
       </c>
       <c r="I40">
-        <v>329.9597995894043</v>
+        <v>311.9885265910586</v>
       </c>
       <c r="J40">
-        <v>157.4911936010851</v>
+        <v>145.9637338718853</v>
       </c>
       <c r="K40">
-        <v>929.2904921217373</v>
+        <v>908.0081518531013</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.05656925153498</v>
+        <v>44.22099881661438</v>
       </c>
       <c r="G41">
-        <v>410.5433613376298</v>
+        <v>420.9903985489257</v>
       </c>
       <c r="H41">
-        <v>1839.125385146751</v>
+        <v>1855.395498472367</v>
       </c>
       <c r="I41">
-        <v>394.7068279637583</v>
+        <v>417.1734784339233</v>
       </c>
       <c r="J41">
-        <v>106.6532340122817</v>
+        <v>101.8625988268436</v>
       </c>
       <c r="K41">
-        <v>616.2142783061589</v>
+        <v>605.4477664045106</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.57406459012804</v>
+        <v>42.35471712817542</v>
       </c>
       <c r="G42">
-        <v>428.9494923656504</v>
+        <v>441.7015924210446</v>
       </c>
       <c r="H42">
-        <v>1856.897795127206</v>
+        <v>1931.029659313776</v>
       </c>
       <c r="I42">
-        <v>498.4247441562021</v>
+        <v>459.2784785079395</v>
       </c>
       <c r="J42">
-        <v>53.68289650579779</v>
+        <v>52.48613138255894</v>
       </c>
       <c r="K42">
-        <v>324.1936988637054</v>
+        <v>343.398920687731</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.77409195536832</v>
+        <v>41.3632278790613</v>
       </c>
       <c r="G43">
-        <v>458.8765001810315</v>
+        <v>439.2716784350511</v>
       </c>
       <c r="H43">
-        <v>1886.029187282411</v>
+        <v>1852.530876865151</v>
       </c>
       <c r="I43">
-        <v>557.7294569853858</v>
+        <v>540.9556230068323</v>
       </c>
       <c r="J43">
-        <v>5.031423458699861</v>
+        <v>5.207214842591997</v>
       </c>
       <c r="K43">
-        <v>34.49794486422715</v>
+        <v>32.52400832122454</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.60589484794129</v>
+        <v>42.87634562091112</v>
       </c>
       <c r="G44">
-        <v>494.1654780301416</v>
+        <v>501.3027386085743</v>
       </c>
       <c r="H44">
-        <v>1855.683920399653</v>
+        <v>1881.749368010596</v>
       </c>
       <c r="I44">
-        <v>625.3832640957878</v>
+        <v>664.1273089233929</v>
       </c>
       <c r="J44">
-        <v>-45.17772461235297</v>
+        <v>-44.21519942134885</v>
       </c>
       <c r="K44">
-        <v>-297.7329392215181</v>
+        <v>-292.3650148085346</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.5952232572059</v>
+        <v>40.6204414875006</v>
       </c>
       <c r="G45">
-        <v>488.5556851772802</v>
+        <v>509.4710579561543</v>
       </c>
       <c r="H45">
-        <v>1839.549498430375</v>
+        <v>1875.12724105043</v>
       </c>
       <c r="I45">
-        <v>697.0536981658794</v>
+        <v>711.9352217456856</v>
       </c>
       <c r="J45">
-        <v>-93.04765799466649</v>
+        <v>-88.4540639409523</v>
       </c>
       <c r="K45">
-        <v>-628.1050807131068</v>
+        <v>-633.3217475452881</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.30772634513857</v>
+        <v>39.81055604754776</v>
       </c>
       <c r="G46">
-        <v>528.8321554573681</v>
+        <v>494.8647757397276</v>
       </c>
       <c r="H46">
-        <v>1935.180721415639</v>
+        <v>1920.833756119845</v>
       </c>
       <c r="I46">
-        <v>784.1151258221547</v>
+        <v>832.4387394398969</v>
       </c>
       <c r="J46">
-        <v>-137.6476703280894</v>
+        <v>-143.5179792419711</v>
       </c>
       <c r="K46">
-        <v>-1008.43315087603</v>
+        <v>-924.1580230520437</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.11366694625973</v>
+        <v>39.35478446356931</v>
       </c>
       <c r="G47">
-        <v>519.0930498041415</v>
+        <v>532.3922176643105</v>
       </c>
       <c r="H47">
-        <v>1870.942121504748</v>
+        <v>2005.119033468309</v>
       </c>
       <c r="I47">
-        <v>894.7048164034275</v>
+        <v>864.079647427855</v>
       </c>
       <c r="J47">
-        <v>-192.0734767599043</v>
+        <v>-184.3489221084148</v>
       </c>
       <c r="K47">
-        <v>-1302.85488157518</v>
+        <v>-1306.177306330608</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.83998182195903</v>
+        <v>38.73674253740572</v>
       </c>
       <c r="G48">
-        <v>547.9932906157978</v>
+        <v>560.6381784090033</v>
       </c>
       <c r="H48">
-        <v>1899.61667357995</v>
+        <v>1955.796880296043</v>
       </c>
       <c r="I48">
-        <v>1000.352164871393</v>
+        <v>1006.811344013221</v>
       </c>
       <c r="J48">
-        <v>-231.3140070514378</v>
+        <v>-226.40994340632</v>
       </c>
       <c r="K48">
-        <v>-1668.865544216219</v>
+        <v>-1629.595007949473</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.92695879780568</v>
+        <v>40.30377104543962</v>
       </c>
       <c r="G49">
-        <v>576.5130727467528</v>
+        <v>539.2062685643042</v>
       </c>
       <c r="H49">
-        <v>1884.118539391233</v>
+        <v>1911.29315912712</v>
       </c>
       <c r="I49">
-        <v>1114.512045760347</v>
+        <v>1090.882470732628</v>
       </c>
       <c r="J49">
-        <v>-290.4355546925379</v>
+        <v>-292.8747131573376</v>
       </c>
       <c r="K49">
-        <v>-2185.726400594534</v>
+        <v>-2179.228001562347</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.75954261707975</v>
+        <v>39.13605964534602</v>
       </c>
       <c r="G50">
-        <v>580.6384468994362</v>
+        <v>581.4709440788746</v>
       </c>
       <c r="H50">
-        <v>2020.230156369677</v>
+        <v>2021.912880282778</v>
       </c>
       <c r="I50">
-        <v>1178.142968621343</v>
+        <v>1202.985234846489</v>
       </c>
       <c r="J50">
-        <v>-331.7645857695153</v>
+        <v>-320.34050479615</v>
       </c>
       <c r="K50">
-        <v>-2575.947079252204</v>
+        <v>-2452.667393565652</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.50658603623007</v>
+        <v>37.98486065529016</v>
       </c>
       <c r="G51">
-        <v>587.6202382401257</v>
+        <v>614.1252088306995</v>
       </c>
       <c r="H51">
-        <v>1872.64318125663</v>
+        <v>2039.040658576465</v>
       </c>
       <c r="I51">
-        <v>1308.730739874256</v>
+        <v>1257.588518791503</v>
       </c>
       <c r="J51">
-        <v>-375.7516319356522</v>
+        <v>-376.6113856194186</v>
       </c>
       <c r="K51">
-        <v>-2903.757342290281</v>
+        <v>-3063.345583765492</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.75124454014235</v>
+        <v>38.33047543461146</v>
       </c>
       <c r="G52">
-        <v>619.885394098683</v>
+        <v>638.1726883132631</v>
       </c>
       <c r="H52">
-        <v>1950.801280267502</v>
+        <v>1934.098135728499</v>
       </c>
       <c r="I52">
-        <v>1342.920735724915</v>
+        <v>1423.233236368269</v>
       </c>
       <c r="J52">
-        <v>-418.8890722716341</v>
+        <v>-426.3091259047647</v>
       </c>
       <c r="K52">
-        <v>-3345.360628425142</v>
+        <v>-3326.591154370305</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.50329580197252</v>
+        <v>37.90063692690035</v>
       </c>
       <c r="G53">
-        <v>600.2911137956883</v>
+        <v>643.7480963002201</v>
       </c>
       <c r="H53">
-        <v>1984.179121066081</v>
+        <v>1904.44417498848</v>
       </c>
       <c r="I53">
-        <v>1417.910918613945</v>
+        <v>1512.667736569793</v>
       </c>
       <c r="J53">
-        <v>-459.7431064634168</v>
+        <v>-460.7290211792852</v>
       </c>
       <c r="K53">
-        <v>-3887.261018129638</v>
+        <v>-3905.320953719657</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.87009901767556</v>
+        <v>36.82311245549104</v>
       </c>
       <c r="G54">
-        <v>614.1668244377807</v>
+        <v>662.1583685393836</v>
       </c>
       <c r="H54">
-        <v>2072.19832668181</v>
+        <v>2003.387137202754</v>
       </c>
       <c r="I54">
-        <v>1632.754703237841</v>
+        <v>1539.676422796045</v>
       </c>
       <c r="J54">
-        <v>-539.7271896080649</v>
+        <v>-538.4072472238802</v>
       </c>
       <c r="K54">
-        <v>-4308.182494710602</v>
+        <v>-4167.617322415102</v>
       </c>
     </row>
   </sheetData>
